--- a/biology/Botanique/Dolcetto_di_Diano_d'Alba/Dolcetto_di_Diano_d'Alba.xlsx
+++ b/biology/Botanique/Dolcetto_di_Diano_d'Alba/Dolcetto_di_Diano_d'Alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dolcetto_di_Diano_d%27Alba</t>
+          <t>Dolcetto_di_Diano_d'Alba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Dolcetto di Diano d'Alba  est un vin rouge italien de la région Piémont. Au départ simple DOC depuis le 1er septembre 1972, elle est depuis le 2 août 2010 une Denominazione di Origine Controllata e Garantita DOCG soit la plus haute reconnaissance qualitative en Italie. Seuls ont droit à la DOCG les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent exclusivement en zone collinaire de la commune de Diano d'Alba en province de Coni.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dolcetto_di_Diano_d%27Alba</t>
+          <t>Dolcetto_di_Diano_d'Alba</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis avec tendance au rouge brique avec le vieillissement.
 odeur : vineux, agréablement caractéristique
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dolcetto_di_Diano_d%27Alba</t>
+          <t>Dolcetto_di_Diano_d'Alba</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dolcetto_di_Diano_d%27Alba</t>
+          <t>Dolcetto_di_Diano_d'Alba</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hors-d’œuvre divers, agnolottis, des  risottos et tagliatelles aux champignons, escalopes de veau.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dolcetto_di_Diano_d%27Alba</t>
+          <t>Dolcetto_di_Diano_d'Alba</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponible 
